--- a/LMS - Data Fields.xlsx
+++ b/LMS - Data Fields.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="220">
   <si>
     <t>Update time</t>
   </si>
@@ -673,6 +673,9 @@
   </si>
   <si>
     <t>Append with ;</t>
+  </si>
+  <si>
+    <t>Db Table</t>
   </si>
 </sst>
 </file>
@@ -1190,17 +1193,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,35 +1228,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1270,70 +1246,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1346,6 +1270,109 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1642,2103 +1669,2129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="45"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="45"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="48"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="F9" s="27" t="s">
+      <c r="D9" s="53"/>
+      <c r="F9" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="45"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="45"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="26" t="s">
+      <c r="D11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="45"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>9</v>
+      <c r="F12" s="65"/>
+      <c r="G12" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="26" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="48"/>
-      <c r="C14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="26" t="s">
+      <c r="H14" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="F15" s="65"/>
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="F15" s="28"/>
-      <c r="G15" s="26" t="s">
+      <c r="H15" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1">
+      <c r="F16" s="65"/>
+      <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" thickBot="1">
-      <c r="F16" s="28"/>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B17" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H17" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B17" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="26" t="s">
+    <row r="18" spans="2:8" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" s="62"/>
+      <c r="C18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B18" s="28"/>
-      <c r="C18" s="25" t="s">
+    <row r="19" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B19" s="62"/>
+      <c r="C19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="62"/>
+      <c r="C20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="65"/>
+      <c r="G20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="H20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="26" t="s">
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B21" s="62"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B22" s="62"/>
+      <c r="C22" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B19" s="28"/>
-      <c r="C19" s="26" t="s">
+    <row r="23" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B23" s="62"/>
+      <c r="C23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="62"/>
+      <c r="C24" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="28"/>
-      <c r="C20" s="26" t="s">
+      <c r="D24" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="62"/>
+      <c r="C25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="62"/>
+      <c r="C26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="62"/>
+      <c r="C27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="62"/>
+      <c r="C28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="62"/>
+      <c r="C29" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B30" s="63"/>
+      <c r="C30" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B21" s="28"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="28"/>
-      <c r="C23" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="28"/>
-      <c r="C24" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="28"/>
-      <c r="C25" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="28"/>
-      <c r="C26" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="28"/>
-      <c r="C27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="28"/>
-      <c r="C28" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="28"/>
-      <c r="C29" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B30" s="29"/>
-      <c r="C30" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="22" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="J34" s="51" t="s">
+      <c r="H34" s="49"/>
+      <c r="J34" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="L34" s="21"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="39"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="25" t="s">
+      <c r="J35" s="59"/>
+      <c r="K35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="39"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="D36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="59"/>
+      <c r="K36" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="65"/>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="39"/>
-      <c r="C37" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="J37" s="59"/>
+      <c r="K37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="65"/>
+      <c r="C38" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="39"/>
-      <c r="C38" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="15" t="s">
+      <c r="J38" s="59"/>
+      <c r="K38" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="52"/>
-      <c r="K38" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="39"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="26" t="s">
+      <c r="J39" s="59"/>
+      <c r="K39" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L39" s="15" t="s">
+      <c r="L39" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="39"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
+      <c r="D40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="52"/>
-      <c r="K40" s="26" t="s">
+      <c r="J40" s="59"/>
+      <c r="K40" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="39"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
+      <c r="D41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="26" t="s">
+      <c r="J41" s="59"/>
+      <c r="K41" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="39"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="D42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="26" t="s">
+      <c r="H42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="59"/>
+      <c r="K42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L42" s="15" t="s">
+      <c r="L42" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="39"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="D43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="26" t="s">
+      <c r="H43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="59"/>
+      <c r="K43" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="L43" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="39"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="D44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="52"/>
-      <c r="K44" s="26" t="s">
+      <c r="H44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="59"/>
+      <c r="K44" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="39"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="D45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="52"/>
-      <c r="K45" s="26" t="s">
+      <c r="H45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="59"/>
+      <c r="K45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="39"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="D46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="52"/>
-      <c r="K46" s="26" t="s">
+      <c r="H46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="59"/>
+      <c r="K46" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L46" s="15" t="s">
+      <c r="L46" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B47" s="39"/>
-      <c r="C47" s="43" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="62" t="s">
+      <c r="E47" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" s="52"/>
-      <c r="K47" s="26" t="s">
+      <c r="H47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="59"/>
+      <c r="K47" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="39"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="52"/>
-      <c r="K48" s="26" t="s">
+      <c r="H48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="59"/>
+      <c r="K48" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B49" s="39"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="53"/>
-      <c r="K49" s="30" t="s">
+      <c r="H49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="60"/>
+      <c r="K49" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="L49" s="31" t="s">
+      <c r="L49" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="39"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B51" s="41"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="7" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H51" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="53" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="19" t="s">
+      <c r="D53" s="53"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="63"/>
-    </row>
-    <row r="54" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B54" s="45"/>
-      <c r="C54" s="5" t="s">
+      <c r="H53" s="53"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="34"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="55"/>
+      <c r="C54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="5" t="s">
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="19" t="s">
+      <c r="I54" s="22"/>
+      <c r="J54" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="34"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="41" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="45"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="D55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="5" t="s">
+      <c r="H55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="K55" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="M55" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="N55" s="34"/>
+      <c r="N55" s="23"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="45"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H56" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="2" t="s">
+      <c r="H56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="N56" s="34"/>
+      <c r="N56" s="23"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="45"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="55"/>
+      <c r="C57" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="33" t="s">
+      <c r="D57" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="2" t="s">
+      <c r="I57" s="22"/>
+      <c r="J57" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="K57" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="M57" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="N57" s="34"/>
+      <c r="N57" s="23"/>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B58" s="45"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="7" t="s">
+      <c r="I58" s="22"/>
+      <c r="J58" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="L58" s="8"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="34"/>
+      <c r="L58" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N58" s="23"/>
     </row>
     <row r="59" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B59" s="45"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="55"/>
+      <c r="C59" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="34"/>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="45"/>
-      <c r="C60" s="5" t="s">
+      <c r="I59" s="22"/>
+      <c r="J59" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="L59" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="M59" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N59" s="23"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B60" s="55"/>
+      <c r="C60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="34"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="K60" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="L60" s="74"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="23"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="45"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="55"/>
+      <c r="C61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="34"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="N61" s="23"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="45"/>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="55"/>
+      <c r="C62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="34"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="23"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="45"/>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="55"/>
+      <c r="C63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="34"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="23"/>
     </row>
     <row r="64" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B64" s="45"/>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="55"/>
+      <c r="C64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="34"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="23"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B65" s="45"/>
-      <c r="C65" s="66" t="s">
+      <c r="B65" s="55"/>
+      <c r="C65" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="19" t="s">
+      <c r="I65" s="22"/>
+      <c r="J65" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="K65" s="21"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="22" t="s">
+      <c r="K65" s="53"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="N65" s="23"/>
+      <c r="N65" s="49"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="45"/>
-      <c r="C66" s="67" t="s">
+      <c r="B66" s="55"/>
+      <c r="C66" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="4" t="s">
+      <c r="I66" s="22"/>
+      <c r="J66" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K66" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="L66" s="33"/>
-      <c r="M66" s="56" t="s">
+      <c r="L66" s="22"/>
+      <c r="M66" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="N66" s="54" t="s">
+      <c r="N66" s="46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B67" s="45"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I67" s="33"/>
-      <c r="J67" s="4" t="s">
+      <c r="I67" s="22"/>
+      <c r="J67" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="K67" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="L67" s="33"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="55"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="47"/>
     </row>
     <row r="68" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B68" s="45"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I68" s="33"/>
-      <c r="J68" s="4" t="s">
+      <c r="I68" s="22"/>
+      <c r="J68" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="34"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="23"/>
     </row>
     <row r="69" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B69" s="45"/>
-      <c r="C69" s="68" t="s">
+      <c r="B69" s="55"/>
+      <c r="C69" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I69" s="33"/>
-      <c r="J69" s="4" t="s">
+      <c r="I69" s="22"/>
+      <c r="J69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="L69" s="33"/>
-      <c r="M69" s="18" t="s">
+      <c r="L69" s="22"/>
+      <c r="M69" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="N69" s="17"/>
+      <c r="N69" s="14"/>
     </row>
     <row r="70" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B70" s="45"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="58" t="s">
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="N70" s="54" t="s">
+      <c r="N70" s="46" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B71" s="45"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I71" s="33"/>
-      <c r="J71" s="19" t="s">
+      <c r="I71" s="22"/>
+      <c r="J71" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="K71" s="21"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="55"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="47"/>
     </row>
     <row r="72" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B72" s="45"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="55"/>
+      <c r="C72" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H72" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="4" t="s">
+      <c r="H72" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="K72" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="34"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="23"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="45"/>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="55"/>
+      <c r="C73" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
+      <c r="E73" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="22"/>
       <c r="G73" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H73" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="33"/>
-      <c r="J73" s="4" t="s">
+      <c r="H73" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="K73" s="13" t="s">
+      <c r="K73" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="L73" s="33"/>
-      <c r="M73" s="60" t="s">
+      <c r="L73" s="22"/>
+      <c r="M73" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="N73" s="61"/>
+      <c r="N73" s="43"/>
     </row>
     <row r="74" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B74" s="45"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
+      <c r="D74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="76"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H74" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="4" t="s">
+      <c r="H74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="22"/>
+      <c r="J74" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L74" s="33"/>
-      <c r="M74" s="7" t="s">
+      <c r="L74" s="22"/>
+      <c r="M74" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N74" s="31" t="s">
+      <c r="N74" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B75" s="45"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H75" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="33"/>
-      <c r="J75" s="4" t="s">
+      <c r="H75" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="22"/>
+      <c r="J75" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="K75" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="34"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="23"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B76" s="45"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H76" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="60" t="s">
+      <c r="H76" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="N76" s="61"/>
+      <c r="N76" s="43"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B77" s="45"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H77" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="33"/>
-      <c r="J77" s="19" t="s">
+      <c r="H77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="22"/>
+      <c r="J77" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="K77" s="21"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="7" t="s">
+      <c r="K77" s="53"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N77" s="31" t="s">
+      <c r="N77" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B78" s="45"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" s="33"/>
-      <c r="J78" s="4" t="s">
+      <c r="H78" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="22"/>
+      <c r="J78" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K78" s="13" t="s">
+      <c r="K78" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="34"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="23"/>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79" s="45"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H79" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="33"/>
-      <c r="J79" s="4" t="s">
+      <c r="H79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="22"/>
+      <c r="J79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="K79" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L79" s="33"/>
-      <c r="M79" s="60" t="s">
+      <c r="L79" s="22"/>
+      <c r="M79" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="N79" s="61"/>
+      <c r="N79" s="43"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B80" s="45"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="7" t="s">
+      <c r="E80" s="76"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I80" s="33"/>
-      <c r="J80" s="4" t="s">
+      <c r="I80" s="22"/>
+      <c r="J80" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K80" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="L80" s="33"/>
-      <c r="M80" s="58" t="s">
+      <c r="L80" s="22"/>
+      <c r="M80" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="N80" s="54" t="s">
+      <c r="N80" s="46" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="81" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B81" s="45"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="55"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="47"/>
     </row>
     <row r="82" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B82" s="45"/>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="55"/>
+      <c r="C82" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="34"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="23"/>
     </row>
     <row r="83" spans="2:14">
-      <c r="B83" s="45"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="60" t="s">
+      <c r="B83" s="55"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="N83" s="61"/>
+      <c r="N83" s="43"/>
     </row>
     <row r="84" spans="2:14">
-      <c r="B84" s="45"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="58" t="s">
+      <c r="B84" s="55"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="N84" s="54" t="s">
+      <c r="N84" s="46" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B85" s="45"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="47"/>
     </row>
     <row r="86" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B86" s="48"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="37"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="26"/>
     </row>
     <row r="89" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="90" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="44" t="s">
+      <c r="D90" s="53"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="19" t="s">
+      <c r="H90" s="53"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="K90" s="21"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="19" t="s">
+      <c r="K90" s="53"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="N90" s="21"/>
+      <c r="N90" s="53"/>
     </row>
     <row r="91" spans="2:14">
-      <c r="B91" s="45"/>
-      <c r="C91" s="4" t="s">
+      <c r="B91" s="55"/>
+      <c r="C91" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="4" t="s">
+      <c r="E91" s="22"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="13" t="s">
+      <c r="H91" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="33"/>
-      <c r="J91" s="4" t="s">
+      <c r="I91" s="22"/>
+      <c r="J91" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K91" s="13" t="s">
+      <c r="K91" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="33"/>
-      <c r="M91" s="4" t="s">
+      <c r="L91" s="22"/>
+      <c r="M91" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N91" s="24" t="s">
+      <c r="N91" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="2:14">
-      <c r="B92" s="45"/>
-      <c r="C92" s="4" t="s">
+      <c r="B92" s="55"/>
+      <c r="C92" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="4" t="s">
+      <c r="E92" s="22"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="33"/>
-      <c r="J92" s="4" t="s">
+      <c r="H92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="22"/>
+      <c r="J92" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K92" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L92" s="33"/>
-      <c r="M92" s="4" t="s">
+      <c r="K92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="22"/>
+      <c r="M92" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N92" s="15" t="s">
+      <c r="N92" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="2:14">
-      <c r="B93" s="45"/>
-      <c r="C93" s="4" t="s">
+      <c r="B93" s="55"/>
+      <c r="C93" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="33"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="4" t="s">
+      <c r="E93" s="22"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H93" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="33"/>
-      <c r="J93" s="4" t="s">
+      <c r="H93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="22"/>
+      <c r="J93" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K93" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L93" s="33"/>
-      <c r="M93" s="4" t="s">
+      <c r="K93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="22"/>
+      <c r="M93" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N93" s="15" t="s">
+      <c r="N93" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="2:14">
-      <c r="B94" s="45"/>
-      <c r="C94" s="4" t="s">
+      <c r="B94" s="55"/>
+      <c r="C94" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="4" t="s">
+      <c r="D94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="33"/>
-      <c r="J94" s="4" t="s">
+      <c r="I94" s="22"/>
+      <c r="J94" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="K94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="33"/>
-      <c r="M94" s="4" t="s">
+      <c r="L94" s="22"/>
+      <c r="M94" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N94" s="15" t="s">
+      <c r="N94" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B95" s="45"/>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="55"/>
+      <c r="C95" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="4" t="s">
+      <c r="E95" s="22"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N95" s="15" t="s">
+      <c r="N95" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B96" s="45"/>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="55"/>
+      <c r="C96" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="33"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="19" t="s">
+      <c r="E96" s="22"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="H96" s="21"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="19" t="s">
+      <c r="H96" s="53"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="K96" s="21"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="46"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="30"/>
     </row>
     <row r="97" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B97" s="45"/>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="55"/>
+      <c r="C97" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D97" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="33"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="4" t="s">
+      <c r="D97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="13" t="s">
+      <c r="H97" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I97" s="33"/>
-      <c r="J97" s="4" t="s">
+      <c r="I97" s="22"/>
+      <c r="J97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K97" s="13" t="s">
+      <c r="K97" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L97" s="33"/>
-      <c r="M97" s="19" t="s">
+      <c r="L97" s="22"/>
+      <c r="M97" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="N97" s="21"/>
+      <c r="N97" s="53"/>
     </row>
     <row r="98" spans="2:14">
-      <c r="B98" s="45"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="33"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="4" t="s">
+      <c r="E98" s="22"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H98" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98" s="33"/>
-      <c r="J98" s="4" t="s">
+      <c r="H98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" s="22"/>
+      <c r="J98" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K98" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L98" s="33"/>
-      <c r="M98" s="4" t="s">
+      <c r="K98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" s="22"/>
+      <c r="M98" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N98" s="24" t="s">
+      <c r="N98" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="2:14">
-      <c r="B99" s="45"/>
+      <c r="B99" s="55"/>
       <c r="C99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="33"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="4" t="s">
+      <c r="E99" s="22"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H99" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" s="33"/>
-      <c r="J99" s="4" t="s">
+      <c r="H99" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" s="22"/>
+      <c r="J99" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K99" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L99" s="33"/>
-      <c r="M99" s="4" t="s">
+      <c r="K99" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99" s="22"/>
+      <c r="M99" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N99" s="15" t="s">
+      <c r="N99" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="2:14">
-      <c r="B100" s="45"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="33"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="4" t="s">
+      <c r="E100" s="22"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I100" s="33"/>
-      <c r="J100" s="4" t="s">
+      <c r="I100" s="22"/>
+      <c r="J100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K100" s="14" t="s">
+      <c r="K100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="33"/>
-      <c r="M100" s="4" t="s">
+      <c r="L100" s="22"/>
+      <c r="M100" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N100" s="15" t="s">
+      <c r="N100" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B101" s="45"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="33"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="4" t="s">
+      <c r="E101" s="22"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N101" s="15" t="s">
+      <c r="N101" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B102" s="45"/>
-      <c r="C102" s="4" t="s">
+      <c r="B102" s="55"/>
+      <c r="C102" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="33"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="19" t="s">
+      <c r="E102" s="22"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="H102" s="21"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="34"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="23"/>
     </row>
     <row r="103" spans="2:14">
-      <c r="B103" s="45"/>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="55"/>
+      <c r="C103" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="33"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="4" t="s">
+      <c r="E103" s="22"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="13" t="s">
+      <c r="H103" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="34"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="23"/>
     </row>
     <row r="104" spans="2:14">
-      <c r="B104" s="45"/>
-      <c r="C104" s="4" t="s">
+      <c r="B104" s="55"/>
+      <c r="C104" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="33"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="4" t="s">
+      <c r="E104" s="22"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="33"/>
-      <c r="M104" s="33"/>
-      <c r="N104" s="34"/>
+      <c r="H104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="23"/>
     </row>
     <row r="105" spans="2:14">
-      <c r="B105" s="45"/>
-      <c r="C105" s="4" t="s">
+      <c r="B105" s="55"/>
+      <c r="C105" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="4" t="s">
+      <c r="E105" s="22"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H105" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="34"/>
+      <c r="H105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="23"/>
     </row>
     <row r="106" spans="2:14">
-      <c r="B106" s="45"/>
-      <c r="C106" s="4" t="s">
+      <c r="B106" s="55"/>
+      <c r="C106" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="33"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="4" t="s">
+      <c r="E106" s="22"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="33"/>
-      <c r="J106" s="69" t="s">
+      <c r="I106" s="22"/>
+      <c r="J106" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
-      <c r="M106" s="33"/>
-      <c r="N106" s="34"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="23"/>
     </row>
     <row r="107" spans="2:14">
-      <c r="B107" s="45"/>
-      <c r="C107" s="4" t="s">
+      <c r="B107" s="55"/>
+      <c r="C107" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="70" t="s">
+      <c r="D107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="F107" s="45"/>
-      <c r="G107" s="4" t="s">
+      <c r="F107" s="55"/>
+      <c r="G107" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I107" s="33"/>
-      <c r="J107" s="69" t="s">
+      <c r="I107" s="22"/>
+      <c r="J107" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="33"/>
-      <c r="N107" s="34"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="23"/>
     </row>
     <row r="108" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B108" s="48"/>
-      <c r="C108" s="47" t="s">
+      <c r="B108" s="56"/>
+      <c r="C108" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="37"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="26"/>
     </row>
     <row r="109" spans="2:14">
-      <c r="B109" s="11"/>
+      <c r="B109" s="8"/>
       <c r="D109"/>
     </row>
     <row r="110" spans="2:14">
@@ -4009,7 +4062,48 @@
       <c r="D176"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F9:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B53:B86"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="B34:B51"/>
+    <mergeCell ref="E73:E82"/>
+    <mergeCell ref="J34:J49"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="B90:B108"/>
+    <mergeCell ref="F90:F108"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
     <mergeCell ref="M76:N76"/>
     <mergeCell ref="M80:M81"/>
     <mergeCell ref="N80:N81"/>
@@ -4017,46 +4111,6 @@
     <mergeCell ref="N84:N85"/>
     <mergeCell ref="M79:N79"/>
     <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="B90:B108"/>
-    <mergeCell ref="F90:F108"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J34:J49"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="F9:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B34:B51"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B53:B86"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LMS - Data Fields.xlsx
+++ b/LMS - Data Fields.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="219">
   <si>
     <t>Update time</t>
   </si>
@@ -507,9 +507,6 @@
   </si>
   <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>Ticket Sub Status</t>
   </si>
   <si>
     <t>Sub Status</t>
@@ -1193,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1270,109 +1267,93 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1669,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J81" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1692,16 +1673,16 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="55"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
@@ -1710,7 +1691,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="55"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
@@ -1719,7 +1700,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="56"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
@@ -1729,30 +1710,30 @@
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="F9" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="52" t="s">
+      <c r="D9" s="45"/>
+      <c r="F9" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="55"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1761,14 +1742,14 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="55"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="65"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1777,15 +1758,15 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="55"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="67" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="42" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -1793,14 +1774,14 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="55"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1809,14 +1790,14 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="56"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1806,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="F15" s="65"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1815,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1">
-      <c r="F16" s="65"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1843,14 +1824,14 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1859,14 +1840,14 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B18" s="62"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1875,28 +1856,28 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B19" s="62"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="52" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="62"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="65"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1905,10 +1886,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B21" s="62"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
-      <c r="F21" s="65"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1917,12 +1898,12 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B22" s="62"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="F22" s="65"/>
+      <c r="D22" s="45"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="29" t="s">
         <v>35</v>
       </c>
@@ -1931,14 +1912,14 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B23" s="62"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="66"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="5" t="s">
         <v>77</v>
       </c>
@@ -1947,7 +1928,7 @@
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="62"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="18" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1937,7 @@
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="62"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="18" t="s">
         <v>68</v>
       </c>
@@ -1968,7 +1949,7 @@
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="62"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="18" t="s">
         <v>69</v>
       </c>
@@ -1980,7 +1961,7 @@
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="62"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="18" t="s">
         <v>70</v>
       </c>
@@ -1992,7 +1973,7 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="62"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="18" t="s">
         <v>71</v>
       </c>
@@ -2004,7 +1985,7 @@
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="62"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="21" t="s">
         <v>74</v>
       </c>
@@ -2013,7 +1994,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B30" s="63"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="29" t="s">
         <v>75</v>
       </c>
@@ -2023,29 +2004,29 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="J34" s="58" t="s">
+      <c r="H34" s="54"/>
+      <c r="J34" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L34" s="53"/>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="65"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2041,7 @@
       <c r="H35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="59"/>
+      <c r="J35" s="60"/>
       <c r="K35" s="17" t="s">
         <v>2</v>
       </c>
@@ -2069,7 +2050,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="65"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
@@ -2079,12 +2060,12 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="59"/>
+      <c r="J36" s="60"/>
       <c r="K36" s="18" t="s">
         <v>92</v>
       </c>
@@ -2093,7 +2074,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="65"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2103,12 +2084,12 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H37" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="59"/>
+      <c r="J37" s="60"/>
       <c r="K37" s="18" t="s">
         <v>93</v>
       </c>
@@ -2117,7 +2098,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="65"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="29" t="s">
         <v>14</v>
       </c>
@@ -2127,12 +2108,12 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="59"/>
+      <c r="J38" s="60"/>
       <c r="K38" s="18" t="s">
         <v>40</v>
       </c>
@@ -2141,7 +2122,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="65"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2156,7 +2137,7 @@
       <c r="H39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="59"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="18" t="s">
         <v>94</v>
       </c>
@@ -2165,7 +2146,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="65"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
@@ -2175,12 +2156,12 @@
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="59"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="18" t="s">
         <v>95</v>
       </c>
@@ -2189,7 +2170,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="65"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="2" t="s">
         <v>30</v>
       </c>
@@ -2199,12 +2180,12 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="59"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="18" t="s">
         <v>30</v>
       </c>
@@ -2213,7 +2194,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="65"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="2" t="s">
         <v>26</v>
       </c>
@@ -2228,7 +2209,7 @@
       <c r="H42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="59"/>
+      <c r="J42" s="60"/>
       <c r="K42" s="18" t="s">
         <v>26</v>
       </c>
@@ -2237,7 +2218,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="65"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="2" t="s">
         <v>20</v>
       </c>
@@ -2252,7 +2233,7 @@
       <c r="H43" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J43" s="59"/>
+      <c r="J43" s="60"/>
       <c r="K43" s="18" t="s">
         <v>96</v>
       </c>
@@ -2261,7 +2242,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="65"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
@@ -2270,13 +2251,13 @@
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="41" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="59"/>
+      <c r="J44" s="60"/>
       <c r="K44" s="18" t="s">
         <v>97</v>
       </c>
@@ -2285,7 +2266,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="65"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2281,7 @@
       <c r="H45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="59"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="18" t="s">
         <v>98</v>
       </c>
@@ -2309,7 +2290,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="65"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
@@ -2324,7 +2305,7 @@
       <c r="H46" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="59"/>
+      <c r="J46" s="60"/>
       <c r="K46" s="18" t="s">
         <v>99</v>
       </c>
@@ -2333,15 +2314,15 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B47" s="65"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="2" t="s">
@@ -2350,7 +2331,7 @@
       <c r="H47" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="59"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="18" t="s">
         <v>100</v>
       </c>
@@ -2359,7 +2340,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="65"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -2370,7 +2351,7 @@
       <c r="H48" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="59"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="18" t="s">
         <v>101</v>
       </c>
@@ -2379,7 +2360,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B49" s="65"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -2390,7 +2371,7 @@
       <c r="H49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="60"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="19" t="s">
         <v>102</v>
       </c>
@@ -2399,7 +2380,7 @@
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="65"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -2412,7 +2393,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B51" s="66"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -2426,19 +2407,19 @@
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="53" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="53"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="52" t="s">
+      <c r="G53" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="53"/>
+      <c r="H53" s="45"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
@@ -2447,7 +2428,7 @@
       <c r="N53" s="34"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="55"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="4" t="s">
         <v>2</v>
       </c>
@@ -2463,18 +2444,18 @@
         <v>8</v>
       </c>
       <c r="I54" s="22"/>
-      <c r="J54" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="49"/>
+      <c r="J54" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="54"/>
       <c r="N54" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="55"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
@@ -2490,22 +2471,22 @@
         <v>9</v>
       </c>
       <c r="I55" s="22"/>
-      <c r="J55" s="70" t="s">
+      <c r="J55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="71" t="s">
+      <c r="L55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M55" s="72" t="s">
+      <c r="M55" s="71" t="s">
         <v>53</v>
       </c>
       <c r="N55" s="23"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="55"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
@@ -2521,30 +2502,30 @@
         <v>9</v>
       </c>
       <c r="I56" s="22"/>
-      <c r="J56" s="70" t="s">
+      <c r="J56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L56" s="71" t="s">
+      <c r="L56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="71" t="s">
         <v>49</v>
       </c>
       <c r="N56" s="23"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="55"/>
-      <c r="C57" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="68" t="s">
+      <c r="B57" s="47"/>
+      <c r="C57" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="43" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="2" t="s">
@@ -2554,22 +2535,22 @@
         <v>82</v>
       </c>
       <c r="I57" s="22"/>
-      <c r="J57" s="70" t="s">
+      <c r="J57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K57" s="71" t="s">
+      <c r="K57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L57" s="71" t="s">
+      <c r="L57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M57" s="72" t="s">
+      <c r="M57" s="71" t="s">
         <v>0</v>
       </c>
       <c r="N57" s="23"/>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B58" s="55"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="36"/>
       <c r="D58" s="30"/>
       <c r="E58" s="22"/>
@@ -2581,26 +2562,26 @@
         <v>83</v>
       </c>
       <c r="I58" s="22"/>
-      <c r="J58" s="70" t="s">
+      <c r="J58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K58" s="71" t="s">
+      <c r="K58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L58" s="71" t="s">
+      <c r="L58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M58" s="72" t="s">
+      <c r="M58" s="71" t="s">
         <v>75</v>
       </c>
       <c r="N58" s="23"/>
     </row>
     <row r="59" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B59" s="55"/>
-      <c r="C59" s="52" t="s">
+      <c r="B59" s="47"/>
+      <c r="C59" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="53"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="2" t="s">
@@ -2610,23 +2591,23 @@
         <v>82</v>
       </c>
       <c r="I59" s="22"/>
-      <c r="J59" s="70" t="s">
+      <c r="J59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L59" s="71" t="s">
+      <c r="L59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M59" s="72" t="s">
+      <c r="M59" s="71" t="s">
         <v>75</v>
       </c>
       <c r="N59" s="23"/>
     </row>
     <row r="60" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B60" s="55"/>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="47"/>
+      <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -2641,19 +2622,19 @@
         <v>83</v>
       </c>
       <c r="I60" s="22"/>
-      <c r="J60" s="73" t="s">
+      <c r="J60" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K60" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="L60" s="74"/>
-      <c r="M60" s="75"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="72"/>
       <c r="N60" s="23"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="55"/>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="47"/>
+      <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="12" t="s">
@@ -2674,8 +2655,8 @@
       <c r="N61" s="23"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="55"/>
-      <c r="C62" s="4" t="s">
+      <c r="B62" s="47"/>
+      <c r="C62" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -2697,8 +2678,8 @@
       <c r="N62" s="23"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="55"/>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="47"/>
+      <c r="C63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -2720,8 +2701,8 @@
       <c r="N63" s="23"/>
     </row>
     <row r="64" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B64" s="55"/>
-      <c r="C64" s="4" t="s">
+      <c r="B64" s="47"/>
+      <c r="C64" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="12" t="s">
@@ -2743,7 +2724,7 @@
       <c r="N64" s="23"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B65" s="55"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="37" t="s">
         <v>148</v>
       </c>
@@ -2759,18 +2740,18 @@
         <v>125</v>
       </c>
       <c r="I65" s="22"/>
-      <c r="J65" s="52" t="s">
+      <c r="J65" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="K65" s="53"/>
+      <c r="K65" s="45"/>
       <c r="L65" s="22"/>
-      <c r="M65" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="N65" s="49"/>
+      <c r="M65" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="N65" s="54"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="55"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="38" t="s">
         <v>149</v>
       </c>
@@ -2786,22 +2767,22 @@
         <v>83</v>
       </c>
       <c r="I66" s="22"/>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K66" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K66" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="L66" s="22"/>
-      <c r="M66" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="N66" s="46" t="s">
+      <c r="M66" s="65" t="s">
         <v>205</v>
       </c>
+      <c r="N66" s="67" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="67" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B67" s="55"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="2" t="s">
         <v>63</v>
       </c>
@@ -2817,18 +2798,18 @@
         <v>83</v>
       </c>
       <c r="I67" s="22"/>
-      <c r="J67" s="3" t="s">
-        <v>196</v>
+      <c r="J67" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L67" s="22"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="47"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="68"/>
     </row>
     <row r="68" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B68" s="55"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
@@ -2844,8 +2825,8 @@
         <v>83</v>
       </c>
       <c r="I68" s="22"/>
-      <c r="J68" s="3" t="s">
-        <v>197</v>
+      <c r="J68" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>160</v>
@@ -2855,9 +2836,9 @@
       <c r="N68" s="23"/>
     </row>
     <row r="69" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B69" s="55"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>87</v>
@@ -2871,20 +2852,20 @@
         <v>83</v>
       </c>
       <c r="I69" s="22"/>
-      <c r="J69" s="3" t="s">
-        <v>199</v>
+      <c r="J69" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L69" s="22"/>
       <c r="M69" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N69" s="14"/>
     </row>
     <row r="70" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B70" s="55"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="22"/>
       <c r="D70" s="28"/>
       <c r="E70" s="22"/>
@@ -2899,15 +2880,15 @@
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
-      <c r="M70" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="N70" s="46" t="s">
-        <v>194</v>
+      <c r="M70" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="N70" s="67" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B71" s="55"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="22"/>
       <c r="D71" s="28"/>
       <c r="E71" s="22"/>
@@ -2919,20 +2900,20 @@
         <v>83</v>
       </c>
       <c r="I71" s="22"/>
-      <c r="J71" s="52" t="s">
+      <c r="J71" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="K71" s="53"/>
+      <c r="K71" s="45"/>
       <c r="L71" s="22"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="47"/>
+      <c r="M71" s="70"/>
+      <c r="N71" s="68"/>
     </row>
     <row r="72" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B72" s="55"/>
-      <c r="C72" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="53"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="45"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="2" t="s">
@@ -2942,26 +2923,26 @@
         <v>9</v>
       </c>
       <c r="I72" s="22"/>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K72" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="23"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="55"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="76" t="s">
-        <v>219</v>
+      <c r="E73" s="58" t="s">
+        <v>218</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="2" t="s">
@@ -2971,27 +2952,27 @@
         <v>9</v>
       </c>
       <c r="I73" s="22"/>
-      <c r="J73" s="3" t="s">
-        <v>196</v>
+      <c r="J73" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L73" s="22"/>
-      <c r="M73" s="42" t="s">
+      <c r="M73" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="N73" s="43"/>
+      <c r="N73" s="64"/>
     </row>
     <row r="74" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B74" s="55"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="76"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="22"/>
       <c r="G74" s="2" t="s">
         <v>138</v>
@@ -3000,8 +2981,8 @@
         <v>9</v>
       </c>
       <c r="I74" s="22"/>
-      <c r="J74" s="3" t="s">
-        <v>197</v>
+      <c r="J74" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>160</v>
@@ -3015,14 +2996,14 @@
       </c>
     </row>
     <row r="75" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B75" s="55"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="76"/>
+      <c r="E75" s="58"/>
       <c r="F75" s="22"/>
       <c r="G75" s="2" t="s">
         <v>139</v>
@@ -3031,25 +3012,25 @@
         <v>9</v>
       </c>
       <c r="I75" s="22"/>
-      <c r="J75" s="3" t="s">
-        <v>199</v>
+      <c r="J75" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="23"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B76" s="55"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E76" s="76"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="22"/>
       <c r="G76" s="2" t="s">
         <v>140</v>
@@ -3061,20 +3042,20 @@
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
-      <c r="M76" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="N76" s="43"/>
+      <c r="M76" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="N76" s="64"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B77" s="55"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="76"/>
+      <c r="E77" s="58"/>
       <c r="F77" s="22"/>
       <c r="G77" s="2" t="s">
         <v>141</v>
@@ -3083,10 +3064,10 @@
         <v>9</v>
       </c>
       <c r="I77" s="22"/>
-      <c r="J77" s="52" t="s">
+      <c r="J77" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K77" s="53"/>
+      <c r="K77" s="45"/>
       <c r="L77" s="22"/>
       <c r="M77" s="5" t="s">
         <v>14</v>
@@ -3096,14 +3077,14 @@
       </c>
     </row>
     <row r="78" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B78" s="55"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E78" s="76"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="22"/>
       <c r="G78" s="2" t="s">
         <v>142</v>
@@ -3113,24 +3094,24 @@
       </c>
       <c r="I78" s="22"/>
       <c r="J78" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="23"/>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79" s="55"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D79" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="76"/>
+      <c r="E79" s="58"/>
       <c r="F79" s="22"/>
       <c r="G79" s="2" t="s">
         <v>143</v>
@@ -3146,51 +3127,51 @@
         <v>126</v>
       </c>
       <c r="L79" s="22"/>
-      <c r="M79" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="N79" s="43"/>
+      <c r="M79" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="N79" s="64"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B80" s="55"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="76"/>
+        <v>191</v>
+      </c>
+      <c r="E80" s="58"/>
       <c r="F80" s="22"/>
       <c r="G80" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H80" s="20" t="s">
         <v>125</v>
       </c>
       <c r="I80" s="22"/>
       <c r="J80" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K80" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="L80" s="22"/>
-      <c r="M80" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="N80" s="46" t="s">
-        <v>194</v>
+      <c r="M80" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="N80" s="67" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B81" s="55"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" s="76"/>
+        <v>190</v>
+      </c>
+      <c r="E81" s="58"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
@@ -3198,18 +3179,18 @@
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="47"/>
+      <c r="M81" s="70"/>
+      <c r="N81" s="68"/>
     </row>
     <row r="82" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B82" s="55"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" s="76"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
@@ -3221,7 +3202,7 @@
       <c r="N82" s="23"/>
     </row>
     <row r="83" spans="2:14">
-      <c r="B83" s="55"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="22"/>
       <c r="D83" s="28"/>
       <c r="E83" s="22"/>
@@ -3232,13 +3213,13 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
-      <c r="M83" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="N83" s="43"/>
+      <c r="M83" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="N83" s="64"/>
     </row>
     <row r="84" spans="2:14">
-      <c r="B84" s="55"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="22"/>
       <c r="D84" s="28"/>
       <c r="E84" s="22"/>
@@ -3249,15 +3230,15 @@
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
-      <c r="M84" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="N84" s="46" t="s">
-        <v>194</v>
+      <c r="M84" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="N84" s="67" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B85" s="55"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="22"/>
       <c r="D85" s="28"/>
       <c r="E85" s="22"/>
@@ -3268,11 +3249,11 @@
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="47"/>
+      <c r="M85" s="70"/>
+      <c r="N85" s="68"/>
     </row>
     <row r="86" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B86" s="56"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="25"/>
       <c r="D86" s="35"/>
       <c r="E86" s="25"/>
@@ -3288,34 +3269,34 @@
     </row>
     <row r="89" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="90" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C90" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="53"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="G90" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="H90" s="53"/>
+      <c r="F90" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="G90" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H90" s="45"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="K90" s="53"/>
+      <c r="J90" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="K90" s="45"/>
       <c r="L90" s="27"/>
-      <c r="M90" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="N90" s="53"/>
+      <c r="M90" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="N90" s="45"/>
     </row>
     <row r="91" spans="2:14">
-      <c r="B91" s="55"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="3" t="s">
         <v>151</v>
       </c>
@@ -3323,7 +3304,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="22"/>
-      <c r="F91" s="55"/>
+      <c r="F91" s="47"/>
       <c r="G91" s="3" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +3327,7 @@
       </c>
     </row>
     <row r="92" spans="2:14">
-      <c r="B92" s="55"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="3" t="s">
         <v>72</v>
       </c>
@@ -3354,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="22"/>
-      <c r="F92" s="55"/>
+      <c r="F92" s="47"/>
       <c r="G92" s="3" t="s">
         <v>163</v>
       </c>
@@ -3370,22 +3351,22 @@
       </c>
       <c r="L92" s="22"/>
       <c r="M92" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N92" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="2:14">
-      <c r="B93" s="55"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="22"/>
-      <c r="F93" s="55"/>
+      <c r="F93" s="47"/>
       <c r="G93" s="3" t="s">
         <v>161</v>
       </c>
@@ -3401,14 +3382,14 @@
       </c>
       <c r="L93" s="22"/>
       <c r="M93" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N93" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="2:14">
-      <c r="B94" s="55"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="3" t="s">
         <v>161</v>
       </c>
@@ -3416,7 +3397,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="22"/>
-      <c r="F94" s="55"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="3" t="s">
         <v>75</v>
       </c>
@@ -3439,7 +3420,7 @@
       </c>
     </row>
     <row r="95" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B95" s="55"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="3" t="s">
         <v>162</v>
       </c>
@@ -3447,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="E95" s="22"/>
-      <c r="F95" s="55"/>
+      <c r="F95" s="47"/>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -3462,7 +3443,7 @@
       </c>
     </row>
     <row r="96" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B96" s="55"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="3" t="s">
         <v>152</v>
       </c>
@@ -3470,22 +3451,22 @@
         <v>10</v>
       </c>
       <c r="E96" s="22"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H96" s="53"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="H96" s="45"/>
       <c r="I96" s="22"/>
-      <c r="J96" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="K96" s="53"/>
+      <c r="J96" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="K96" s="45"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
       <c r="N96" s="30"/>
     </row>
     <row r="97" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B97" s="55"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="3" t="s">
         <v>153</v>
       </c>
@@ -3493,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="22"/>
-      <c r="F97" s="55"/>
+      <c r="F97" s="47"/>
       <c r="G97" s="3" t="s">
         <v>2</v>
       </c>
@@ -3508,13 +3489,13 @@
         <v>8</v>
       </c>
       <c r="L97" s="22"/>
-      <c r="M97" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="N97" s="53"/>
+      <c r="M97" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="N97" s="45"/>
     </row>
     <row r="98" spans="2:14">
-      <c r="B98" s="55"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="1" t="s">
         <v>35</v>
       </c>
@@ -3522,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="E98" s="22"/>
-      <c r="F98" s="55"/>
+      <c r="F98" s="47"/>
       <c r="G98" s="3" t="s">
         <v>163</v>
       </c>
@@ -3531,7 +3512,7 @@
       </c>
       <c r="I98" s="22"/>
       <c r="J98" s="3" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>9</v>
@@ -3545,7 +3526,7 @@
       </c>
     </row>
     <row r="99" spans="2:14">
-      <c r="B99" s="55"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="1" t="s">
         <v>14</v>
       </c>
@@ -3553,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="22"/>
-      <c r="F99" s="55"/>
+      <c r="F99" s="47"/>
       <c r="G99" s="3" t="s">
         <v>161</v>
       </c>
@@ -3562,21 +3543,21 @@
       </c>
       <c r="I99" s="22"/>
       <c r="J99" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="22"/>
       <c r="M99" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N99" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="2:14">
-      <c r="B100" s="55"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="1" t="s">
         <v>73</v>
       </c>
@@ -3584,7 +3565,7 @@
         <v>10</v>
       </c>
       <c r="E100" s="22"/>
-      <c r="F100" s="55"/>
+      <c r="F100" s="47"/>
       <c r="G100" s="3" t="s">
         <v>75</v>
       </c>
@@ -3593,7 +3574,7 @@
       </c>
       <c r="I100" s="22"/>
       <c r="J100" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>10</v>
@@ -3606,8 +3587,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B101" s="55"/>
+    <row r="101" spans="2:14">
+      <c r="B101" s="47"/>
       <c r="C101" s="1" t="s">
         <v>65</v>
       </c>
@@ -3615,12 +3596,16 @@
         <v>10</v>
       </c>
       <c r="E101" s="22"/>
-      <c r="F101" s="55"/>
+      <c r="F101" s="47"/>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="28"/>
+      <c r="J101" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="L101" s="22"/>
       <c r="M101" s="3" t="s">
         <v>75</v>
@@ -3629,20 +3614,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B102" s="55"/>
+    <row r="102" spans="2:14">
+      <c r="B102" s="47"/>
       <c r="C102" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="22"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="H102" s="53"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22"/>
@@ -3651,7 +3634,7 @@
       <c r="N102" s="23"/>
     </row>
     <row r="103" spans="2:14">
-      <c r="B103" s="55"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="3" t="s">
         <v>159</v>
       </c>
@@ -3659,13 +3642,9 @@
         <v>10</v>
       </c>
       <c r="E103" s="22"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F103" s="47"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22"/>
@@ -3674,7 +3653,7 @@
       <c r="N103" s="23"/>
     </row>
     <row r="104" spans="2:14">
-      <c r="B104" s="55"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="3" t="s">
         <v>154</v>
       </c>
@@ -3682,13 +3661,9 @@
         <v>10</v>
       </c>
       <c r="E104" s="22"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="F104" s="47"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22"/>
@@ -3697,7 +3672,7 @@
       <c r="N104" s="23"/>
     </row>
     <row r="105" spans="2:14">
-      <c r="B105" s="55"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="3" t="s">
         <v>75</v>
       </c>
@@ -3705,13 +3680,9 @@
         <v>10</v>
       </c>
       <c r="E105" s="22"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="F105" s="47"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
@@ -3720,21 +3691,17 @@
       <c r="N105" s="23"/>
     </row>
     <row r="106" spans="2:14">
-      <c r="B106" s="55"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="22"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F106" s="47"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
       <c r="I106" s="22"/>
       <c r="J106" s="40" t="s">
         <v>155</v>
@@ -3745,7 +3712,7 @@
       <c r="N106" s="23"/>
     </row>
     <row r="107" spans="2:14">
-      <c r="B107" s="55"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="3" t="s">
         <v>157</v>
       </c>
@@ -3753,15 +3720,11 @@
         <v>9</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="55"/>
-      <c r="G107" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>10</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F107" s="47"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
       <c r="I107" s="22"/>
       <c r="J107" s="40" t="s">
         <v>156</v>
@@ -3772,7 +3735,7 @@
       <c r="N107" s="23"/>
     </row>
     <row r="108" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B108" s="56"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="31" t="s">
         <v>158</v>
       </c>
@@ -3780,7 +3743,7 @@
         <v>160</v>
       </c>
       <c r="E108" s="25"/>
-      <c r="F108" s="56"/>
+      <c r="F108" s="48"/>
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
@@ -4062,40 +4025,7 @@
       <c r="D176"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F9:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B53:B86"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B34:B51"/>
-    <mergeCell ref="E73:E82"/>
-    <mergeCell ref="J34:J49"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M90:N90"/>
+  <mergeCells count="47">
     <mergeCell ref="M97:N97"/>
     <mergeCell ref="B90:B108"/>
     <mergeCell ref="F90:F108"/>
@@ -4111,6 +4041,38 @@
     <mergeCell ref="N84:N85"/>
     <mergeCell ref="M79:N79"/>
     <mergeCell ref="M83:N83"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="B34:B51"/>
+    <mergeCell ref="E73:E82"/>
+    <mergeCell ref="J34:J49"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B53:B86"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F9:F23"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
